--- a/algoritmo.xlsx
+++ b/algoritmo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carolina.t.mamud\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carolina.t.mamud\AspiradoraRobot-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E2AF4D1-276A-4DE2-9BFC-CA9E2D90CED5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB8D9568-1E43-4966-8A0F-E355BB7CF7A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A037845F-D553-4841-87DC-927B3DD2CDD7}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
   <si>
     <t>x</t>
   </si>
@@ -114,7 +114,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,6 +125,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF92D050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -203,7 +210,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -216,6 +222,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -532,8 +541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5645E4F-B077-4B63-B153-F3E862C7EAD5}">
   <dimension ref="A2:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -558,7 +567,7 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="12"/>
+      <c r="G3" s="11"/>
       <c r="H3" s="4"/>
       <c r="I3" t="s">
         <v>3</v>
@@ -566,19 +575,13 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
-      <c r="B4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H4" s="13"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="12"/>
       <c r="J4" t="s">
         <v>4</v>
       </c>
@@ -591,14 +594,16 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="4"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
+      <c r="B5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5"/>
       <c r="D5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
       <c r="H5" s="3"/>
       <c r="M5" t="s">
         <v>5</v>
@@ -606,16 +611,14 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="4"/>
-      <c r="B6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
       <c r="F6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="13" t="s">
         <v>0</v>
       </c>
       <c r="H6" s="4"/>
@@ -625,14 +628,14 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
       <c r="D7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
       <c r="H7" s="3"/>
       <c r="M7" t="s">
         <v>9</v>
@@ -640,14 +643,14 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="4"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="5"/>
       <c r="H8" s="4"/>
       <c r="M8" t="s">
         <v>8</v>
@@ -655,28 +658,26 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="4"/>
-      <c r="B9" s="6"/>
+      <c r="B9" s="5"/>
       <c r="C9" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G9" s="6"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="5"/>
       <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="4"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
       <c r="E10" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
       <c r="H10" s="4"/>
       <c r="K10" t="s">
         <v>11</v>
@@ -684,14 +685,12 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="4"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="7"/>
       <c r="H11" s="4"/>
       <c r="J11" t="s">
         <v>10</v>
@@ -703,16 +702,16 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="4"/>
-      <c r="B12" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="6"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
       <c r="D12" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" s="5"/>
       <c r="H12" s="4"/>
       <c r="K12" t="s">
         <v>12</v>
@@ -720,26 +719,26 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="4"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
       <c r="H13" s="4"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="4"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
       <c r="D14" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="6"/>
+      <c r="E14" s="5"/>
       <c r="F14" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G14" s="6"/>
+      <c r="G14" s="5"/>
       <c r="H14" s="4"/>
       <c r="K14" t="s">
         <v>19</v>
@@ -750,14 +749,12 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="4"/>
-      <c r="B15" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
       <c r="H15" s="4"/>
       <c r="L15" t="s">
         <v>16</v>
@@ -765,14 +762,12 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="4"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="5"/>
       <c r="H16" s="4"/>
       <c r="L16" t="s">
         <v>17</v>
@@ -826,32 +821,32 @@
       <c r="B23" t="s">
         <v>14</v>
       </c>
-      <c r="G23" s="9" t="s">
+      <c r="G23" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H23" s="9"/>
+      <c r="H23" s="8"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="G24" s="3"/>
-      <c r="H24" s="9"/>
+      <c r="H24" s="8"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="G28" s="3"/>
-      <c r="H28" s="10"/>
+      <c r="H28" s="9"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="G29" s="10" t="s">
+      <c r="G29" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H29" s="10"/>
+      <c r="H29" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
